--- a/biology/Zoologie/Hirondelle_paludicole/Hirondelle_paludicole.xlsx
+++ b/biology/Zoologie/Hirondelle_paludicole/Hirondelle_paludicole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riparia paludicola
 L'Hirondelle paludicole (Riparia paludicola) est une espèce de passereaux de la famille des Hirundinidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1817[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1817.
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit au Maroc et en Afrique subsaharienne.
 Elle a été observée accidentellement en France et dans certains pays d'Afrique subsaharienne (Sénégal, Gambie, Guinée-Bissau, Côte d'Ivoire, République du Congo, Somalie) et du Moyen-Orient (Israël, Émirats arabes unis, Oman).
-Sous-espèces
-D'après le Congrès ornithologique international (COI), cette espèce est constituée des sept sous-espèces suivantes (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hirondelle_paludicole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirondelle_paludicole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Congrès ornithologique international (COI), cette espèce est constituée des sept sous-espèces suivantes (ordre phylogénique) :
 Riparia paludicola mauritanica (Meade-Waldo, 1901) ;
 Riparia paludicola minor (Cabanis, 1850) ;
 Riparia paludicola schoensis Reichenow, 1920 ;
@@ -561,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hirondelle_paludicole</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hirondelle_paludicole</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un plumage essentiellement brun en particulier sur le dessus.
 			Riparia paludicola minor
